--- a/biology/Botanique/Cauliflore/Cauliflore.xlsx
+++ b/biology/Botanique/Cauliflore/Cauliflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, une plante cauliflore (du latin caulis, « tronc » ou « tige », avec le suffixe -flore, « fleur ») est une plante dont les fleurs ou les fruits poussent directement sur le tronc (phénomène de cauliflorie) ou les branches (phénomène de ramiflorie) et non pas sur des tiges comme c'est le cas pour la plupart des végétaux. C'est généralement une caractéristique des arbres tropicaux.
-Cela permet que la pollinisation ou la dispersion des graines soient assurées par des animaux qui ne sont ni des oiseaux, ni arboricoles. C'est ainsi que la cauliflorie a pu être considérée comme une adaptation à la cheiroptérogamie, tout en ayant aussi été envisagée parfois comme la persistance d'une structure archaïque[1].
-Cela peut donner aussi des fruits très gros et très visibles. C'est le cas du jacquier, dont les fruits peuvent atteindre un mètre de long et un poids de 50 kg[2].
+Cela permet que la pollinisation ou la dispersion des graines soient assurées par des animaux qui ne sont ni des oiseaux, ni arboricoles. C'est ainsi que la cauliflorie a pu être considérée comme une adaptation à la cheiroptérogamie, tout en ayant aussi été envisagée parfois comme la persistance d'une structure archaïque.
+Cela peut donner aussi des fruits très gros et très visibles. C'est le cas du jacquier, dont les fruits peuvent atteindre un mètre de long et un poids de 50 kg.
 Les plantes cauliflores les plus connues sont l'arbre de Judée (Cercis siliquastrum), le cacaoyer (Theobroma cacao) et des arbres à fruits tropicaux tels que le papayer (Carica papaya) et le durian (Durio zibethinus).
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Artocarpus heterophyllus (Jacquier)
 Artocarpus integer (Cempedak)
